--- a/ai_jobs_report.xlsx
+++ b/ai_jobs_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\JobScrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE80CCB7-361B-464F-A0C7-4CD825D04D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EBF62B-8101-45A0-ACC7-8813CB34A573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3142,7 +3142,7 @@
   <dimension ref="A1:K221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
